--- a/public/BukuData/data_buku.xlsx
+++ b/public/BukuData/data_buku.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B1C863-B4BE-4E51-A24D-12BD0D758976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -57,52 +41,53 @@
     <t>Kategori</t>
   </si>
   <si>
-    <t>Karya Sastra Berita Kepada Kawan</t>
-  </si>
-  <si>
-    <t>Ebiet G</t>
-  </si>
-  <si>
-    <t>POLIJE</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
+    <t>Friendzone</t>
+  </si>
+  <si>
+    <t>Fiersa besari</t>
+  </si>
+  <si>
+    <t>Gramedia</t>
+  </si>
+  <si>
+    <t>2024-08-30</t>
   </si>
   <si>
     <t>Tersedia</t>
   </si>
   <si>
-    <t>Cerita Pendek</t>
-  </si>
-  <si>
-    <t>Maling Kundang</t>
-  </si>
-  <si>
-    <t>Lana</t>
-  </si>
-  <si>
-    <t>Novel</t>
+    <t>Fiksi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <i/>
-      <u/>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -128,25 +113,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -436,19 +412,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -494,205 +470,29 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45576</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45576</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45576</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>45576</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId1" display="http://127.0.0.1:8000/buku/1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" xr:uid="{CCA9C3EF-A69C-4476-B0D2-8FF7762AA05E}"/>
-    <hyperlink ref="A6" xr:uid="{A74672AF-3314-4DFE-B651-A8858B81BB26}"/>
-    <hyperlink ref="I6" r:id="rId2" display="http://127.0.0.1:8000/buku/1" xr:uid="{B4619EF7-7A9C-4110-A93F-70EFFA424158}"/>
-    <hyperlink ref="A8" xr:uid="{7E2378E1-6F01-4B93-96B0-9DB39EDFDE7C}"/>
+    <hyperlink ref="A2" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="I2" r:id="rId_hyperlink_2"/>
   </hyperlinks>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>